--- a/biology/Zoologie/Encyocrypta_letocarti/Encyocrypta_letocarti.xlsx
+++ b/biology/Zoologie/Encyocrypta_letocarti/Encyocrypta_letocarti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Encyocrypta letocarti est une espèce d'araignées mygalomorphes de la famille des Barychelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Encyocrypta letocarti est une espèce d'araignées mygalomorphes de la famille des Barychelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie[1]. Elle se rencontre vers Rivière Blanche[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie. Elle se rencontre vers Rivière Blanche.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 15 mm et la femelle paratype 14 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 15 mm et la femelle paratype 14 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Yves Letocart[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Yves Letocart.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven &amp; Churchill, 1991 : A revision of the mygalomorph spider genus Encyocrypta Simon in New Caledonia (Araneae Barychelidae). Zoologia Neocaledonica, vol. 2, Mémoires du Muséum National d'Histoire Naturelle de Paris, sér. A, vol. 149, p. 31-86.</t>
         </is>
